--- a/PracaInzynierskaTex/results-summary.xlsx
+++ b/PracaInzynierskaTex/results-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRIVATE\Semestr7\Inzynierka\automated-business-process-discovery\PracaInzynierskaTex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736B16A-94D9-4CAD-9738-C72825257D0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8835E6-0C9E-4C55-B818-B5934D459BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24135" yWindow="16785" windowWidth="28485" windowHeight="14295" xr2:uid="{9C13F404-5787-4E81-AEE2-6C84A881A094}"/>
+    <workbookView xWindow="4650" yWindow="6450" windowWidth="26940" windowHeight="13125" xr2:uid="{9C13F404-5787-4E81-AEE2-6C84A881A094}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8C924D-683C-4508-9C12-9C91DC4B9AFA}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PracaInzynierskaTex/results-summary.xlsx
+++ b/PracaInzynierskaTex/results-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRIVATE\Semestr7\Inzynierka\automated-business-process-discovery\PracaInzynierskaTex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8835E6-0C9E-4C55-B818-B5934D459BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5BD9A-DE1C-4292-B905-ACBE0D997388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="6450" windowWidth="26940" windowHeight="13125" xr2:uid="{9C13F404-5787-4E81-AEE2-6C84A881A094}"/>
+    <workbookView xWindow="1290" yWindow="5880" windowWidth="18960" windowHeight="12075" xr2:uid="{9C13F404-5787-4E81-AEE2-6C84A881A094}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
   <si>
     <t>alignment</t>
   </si>
@@ -148,13 +148,220 @@
   </si>
   <si>
     <t>{a}xor({f}{b})and({d}opt({c}))lo3({g}xor({f}{b})and({d}opt({c}))){e}</t>
+  </si>
+  <si>
+    <t>incoming claim</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>B check if sufficient information is available</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>B register claim</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>determine likelihood of claim</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>assess claim</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>advise claimant on reimbursement</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>initiate payment</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>close claim</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>S check if sufficient information is available</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>S register claim</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Analyze Defect</t>
+  </si>
+  <si>
+    <t>Repair (Complex)</t>
+  </si>
+  <si>
+    <t>Inform User</t>
+  </si>
+  <si>
+    <t>Test Repair</t>
+  </si>
+  <si>
+    <t>Archive Repair</t>
+  </si>
+  <si>
+    <t>Repair (Simple)</t>
+  </si>
+  <si>
+    <t>Restart Repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>examine thoroughly</t>
+  </si>
+  <si>
+    <t>examine casually</t>
+  </si>
+  <si>
+    <t>check ticket</t>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>reinitiate request</t>
+  </si>
+  <si>
+    <t>pay compensation</t>
+  </si>
+  <si>
+    <t>reject request</t>
+  </si>
+  <si>
+    <t>register request</t>
+  </si>
+  <si>
+    <r>
+      <t>process to repair telephones in a company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>analizowanie usterki</t>
+  </si>
+  <si>
+    <t>naprawa (skomplikowana)</t>
+  </si>
+  <si>
+    <t>naprawa (prosta)</t>
+  </si>
+  <si>
+    <t>przetestowanie naprawy</t>
+  </si>
+  <si>
+    <t>ponowienie naprawy</t>
+  </si>
+  <si>
+    <t>zarchiwizowanie naprawy</t>
+  </si>
+  <si>
+    <t>poinformowanie klienta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadejście zgłosznie </t>
+  </si>
+  <si>
+    <t>sprawdzenie, czy dostępne są wystarczające informacje (Brisbane)</t>
+  </si>
+  <si>
+    <t>sprawdzenie, czy dostępne są wystarczające informacje (Sydney)</t>
+  </si>
+  <si>
+    <t>zarchiwizowanie zgłoszenia</t>
+  </si>
+  <si>
+    <t>zamknięcie zgłoszenia</t>
+  </si>
+  <si>
+    <t>rozpoczęcie zapłaty</t>
+  </si>
+  <si>
+    <t>doradzenie wnioskodawcy w sprawie zwrotu kosztów</t>
+  </si>
+  <si>
+    <t>ocena roszczenia</t>
+  </si>
+  <si>
+    <t>zarejestrowanie zgłoszenia (Brisbane)</t>
+  </si>
+  <si>
+    <t>Obsługa wniosku o odszkodowanie</t>
+  </si>
+  <si>
+    <t>zbadanie pobieżne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zbadanie dokładne </t>
+  </si>
+  <si>
+    <t>podjęcie decyzji</t>
+  </si>
+  <si>
+    <t>ponowna inicjacja zgłoszenia</t>
+  </si>
+  <si>
+    <t>zarejestrerowanie zgłoszenia</t>
+  </si>
+  <si>
+    <t>wypłacenie odszkodowania</t>
+  </si>
+  <si>
+    <t>odrzucenie zgłoszenia</t>
+  </si>
+  <si>
+    <t>sprawdzenie poprawności zgłoszenia</t>
+  </si>
+  <si>
+    <t>określenie prawdopodobieństwa roszczenia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +374,14 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,16 +399,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8C924D-683C-4508-9C12-9C91DC4B9AFA}">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="N22" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,8 +752,10 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1352,7 +1586,8 @@
         <v>40.237499999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="16" spans="1:30" ht="15.75" thickBot="1"/>
+    <row r="17" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B17" s="1">
         <v>0.92430000000000001</v>
       </c>
@@ -1367,8 +1602,20 @@
         <f>SUM(E17:E21)/36</f>
         <v>0.90007222222222216</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B18" s="1">
         <v>0.97060000000000002</v>
       </c>
@@ -1379,8 +1626,20 @@
         <f t="shared" ref="E18:E21" si="0">B18*D18</f>
         <v>1.9412</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B19" s="1">
         <v>0.3997</v>
       </c>
@@ -1391,8 +1650,20 @@
         <f t="shared" si="0"/>
         <v>0.7994</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B20" s="1">
         <v>0.94650000000000001</v>
       </c>
@@ -1403,8 +1674,20 @@
         <f t="shared" si="0"/>
         <v>11.358000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B21" s="2">
         <v>0.83330000000000004</v>
       </c>
@@ -1415,7 +1698,326 @@
         <f t="shared" si="0"/>
         <v>1.6666000000000001</v>
       </c>
-    </row>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" thickTop="1"/>
+    <row r="29" spans="2:18" ht="15.75" thickBot="1">
+      <c r="O29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N35" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" ht="15.75" thickTop="1"/>
+    <row r="38" spans="14:18" ht="15.75" thickBot="1">
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N43" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N45" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="14:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="N46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="14:18" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
